--- a/DataEntry/Data/Documents/DataEntry.xlsx
+++ b/DataEntry/Data/Documents/DataEntry.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8A165C-18E5-4048-88C6-26B8D78B3A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7500" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IndexII" sheetId="1" r:id="rId1"/>
@@ -13,19 +19,6 @@
     <sheet name="RentDetails" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -323,15 +316,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,346 +325,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -686,312 +342,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Link" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1249,32 +619,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="10.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="14.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="14.7142857142857" customWidth="1"/>
-    <col min="7" max="7" width="16.7142857142857" customWidth="1"/>
-    <col min="8" max="8" width="14.2857142857143" customWidth="1"/>
-    <col min="9" max="9" width="13.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="12.7142857142857" customWidth="1"/>
-    <col min="15" max="15" width="12.8571428571429" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1414,36 +784,34 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="9.14285714285714" customWidth="1"/>
-    <col min="3" max="3" width="17.2857142857143" customWidth="1"/>
-    <col min="4" max="4" width="13.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="10.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="27.2857142857143" customWidth="1"/>
-    <col min="7" max="9" width="9.14285714285714" customWidth="1"/>
-    <col min="10" max="10" width="15.8571428571429" customWidth="1"/>
-    <col min="11" max="11" width="24.8571428571429" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="7" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" customWidth="1"/>
     <col min="12" max="12" width="20" customWidth="1"/>
-    <col min="13" max="13" width="28.1428571428571" customWidth="1"/>
+    <col min="13" max="13" width="28.140625" customWidth="1"/>
     <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="18" width="9.14285714285714" customWidth="1"/>
-    <col min="19" max="19" width="12.5714285714286" customWidth="1"/>
+    <col min="15" max="18" width="9.140625" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -1505,7 +873,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="2:19">
+    <row r="2" spans="1:19">
       <c r="B2" t="s">
         <v>43</v>
       </c>
@@ -1561,7 +929,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="2:19">
+    <row r="3" spans="1:19">
       <c r="B3" t="s">
         <v>56</v>
       </c>
@@ -1617,7 +985,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:19">
+    <row r="4" spans="1:19">
       <c r="B4" t="s">
         <v>56</v>
       </c>
@@ -1673,7 +1041,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:19">
       <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
@@ -1699,7 +1067,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:19">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
@@ -1718,27 +1086,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="18.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="9.14285714285714" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="14.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1777,7 +1143,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1809,7 +1175,7 @@
         <v>411024</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>87</v>
       </c>
@@ -1843,32 +1209,30 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="20.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="17.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="18.4285714285714" customWidth="1"/>
-    <col min="5" max="9" width="17.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="9" width="17.28515625" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="14.4285714285714" customWidth="1"/>
-    <col min="12" max="12" width="17.5714285714286" customWidth="1"/>
-    <col min="13" max="13" width="16.8571428571429" customWidth="1"/>
-    <col min="14" max="14" width="19.1428571428571" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1903,14 +1267,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/DataEntry/Data/Documents/DataEntry.xlsx
+++ b/DataEntry/Data/Documents/DataEntry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8A165C-18E5-4048-88C6-26B8D78B3A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114010A1-053F-4637-B06D-F88962CD736C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
   <si>
     <t>Token</t>
   </si>
@@ -70,7 +70,79 @@
     <t>Date</t>
   </si>
   <si>
-    <t>26010499902910</t>
+    <t>Laukik Ishan</t>
+  </si>
+  <si>
+    <t>Sinhgad Road</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>FullName</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>AdharNumber</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>Laxman</t>
+  </si>
+  <si>
+    <t>Deokate</t>
+  </si>
+  <si>
+    <t>D404</t>
+  </si>
+  <si>
+    <t>Swapna</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>Deposit</t>
+  </si>
+  <si>
+    <t>RentAmount</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>StampDuty</t>
+  </si>
+  <si>
+    <t>DHC</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
   <si>
     <t>Laxman Jagannath Deokate</t>
@@ -82,247 +154,44 @@
     <t>D-404</t>
   </si>
   <si>
-    <t>Laukik Ishan</t>
-  </si>
-  <si>
-    <t>Sinhgad Road</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>Khadakwasla</t>
-  </si>
-  <si>
-    <t>15/6/1</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>23/12/2025</t>
-  </si>
-  <si>
-    <t>26010499902939</t>
-  </si>
-  <si>
-    <t>Rajan Krishnaji Urane</t>
-  </si>
-  <si>
-    <t>B-501</t>
-  </si>
-  <si>
-    <t>Pancham</t>
-  </si>
-  <si>
-    <t>Nanded</t>
-  </si>
-  <si>
-    <t>11,12,79</t>
-  </si>
-  <si>
-    <t>Party</t>
-  </si>
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>MiddleName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>FullName</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>AdharNumber</t>
-  </si>
-  <si>
-    <t>PAN</t>
+    <t>26010999904309</t>
+  </si>
+  <si>
+    <t>Laukik Ishaan</t>
+  </si>
+  <si>
+    <t>Kolhewadi</t>
+  </si>
+  <si>
+    <t>Khadakwsla</t>
   </si>
   <si>
     <t>own</t>
   </si>
   <si>
-    <t>Laxman</t>
-  </si>
-  <si>
-    <t>Jagannath</t>
-  </si>
-  <si>
-    <t>Deokate</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>D404</t>
-  </si>
-  <si>
-    <t>Laukik Ishaan</t>
-  </si>
-  <si>
-    <t>Kolhewadi Khadakwasla</t>
-  </si>
-  <si>
-    <t>Near Cwprs Gate, Canara Bank, Kolewadi</t>
-  </si>
-  <si>
-    <t>411024</t>
-  </si>
-  <si>
-    <t>3628 3340 5978</t>
-  </si>
-  <si>
     <t>ten</t>
   </si>
   <si>
-    <t>Manisha</t>
-  </si>
-  <si>
-    <t>Siddharam</t>
-  </si>
-  <si>
-    <t>Kumbhar</t>
-  </si>
-  <si>
-    <t>Manisha Siddharam Kumbhar</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>mahavir nagar galli no 2 survey</t>
-  </si>
-  <si>
-    <t>near datta mandir vishvajim</t>
-  </si>
-  <si>
-    <t>sukhasagar nagar</t>
-  </si>
-  <si>
-    <t>Pune City, Katraj</t>
-  </si>
-  <si>
-    <t>411046</t>
-  </si>
-  <si>
-    <t>804767927902</t>
-  </si>
-  <si>
-    <t>HMDPK5560F</t>
-  </si>
-  <si>
-    <t>Nishigandha</t>
-  </si>
-  <si>
-    <t>Atul</t>
-  </si>
-  <si>
-    <t>Kodlinge</t>
-  </si>
-  <si>
-    <t>Nishigandha Atul Kodlinge</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>B-113/8</t>
-  </si>
-  <si>
-    <t>Supar</t>
-  </si>
-  <si>
-    <t>Indiranagar, Near PanyaChi Market</t>
-  </si>
-  <si>
-    <t>Bibavewadi</t>
-  </si>
-  <si>
-    <t>Yard</t>
-  </si>
-  <si>
-    <t>411037</t>
-  </si>
-  <si>
-    <t>748343582012</t>
-  </si>
-  <si>
-    <t>Rajan</t>
-  </si>
-  <si>
-    <t>Krishnaji</t>
-  </si>
-  <si>
-    <t>Urane</t>
-  </si>
-  <si>
-    <t>Sangram Mohan Monde</t>
-  </si>
-  <si>
-    <t>Swapna</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>StartDate</t>
-  </si>
-  <si>
-    <t>Deposit</t>
-  </si>
-  <si>
-    <t>RentAmount</t>
-  </si>
-  <si>
-    <t>Registration</t>
-  </si>
-  <si>
-    <t>StampDuty</t>
-  </si>
-  <si>
-    <t>DHC</t>
-  </si>
-  <si>
-    <t>Total</t>
+    <t>Sachin Ganpat Mane</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -346,10 +215,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,17 +497,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
@@ -648,7 +520,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -695,91 +567,44 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
+      <c r="A2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C2">
         <v>411024</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
+      <c r="D2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="5">
+        <v>46188</v>
       </c>
       <c r="K2">
         <v>605</v>
       </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3">
-        <v>411041</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="N2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3">
-        <v>58</v>
-      </c>
-      <c r="N3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" s="1">
-        <v>46026</v>
+      <c r="O2" s="2">
+        <v>46031</v>
       </c>
     </row>
   </sheetData>
@@ -790,10 +615,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -819,28 +644,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="I1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
@@ -864,224 +689,35 @@
         <v>2</v>
       </c>
       <c r="Q1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="R1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="S1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="B2" t="s">
+      <c r="A2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>55</v>
-      </c>
-      <c r="R2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" t="s">
-        <v>26</v>
+      <c r="F2" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="B3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="A3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="J3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N3" t="s">
-        <v>67</v>
-      </c>
-      <c r="O3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>69</v>
-      </c>
-      <c r="R3" t="s">
-        <v>70</v>
-      </c>
-      <c r="S3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K4" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" t="s">
-        <v>78</v>
-      </c>
-      <c r="M4" t="s">
-        <v>79</v>
-      </c>
-      <c r="N4" t="s">
-        <v>80</v>
-      </c>
-      <c r="O4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>82</v>
-      </c>
-      <c r="R4" t="s">
-        <v>49</v>
-      </c>
-      <c r="S4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5">
-        <v>66</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6">
-        <v>34</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1110,13 +746,13 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -1145,31 +781,31 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C2">
         <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J2">
         <v>411024</v>
@@ -1177,31 +813,31 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J3">
         <v>411024</v>
@@ -1215,10 +851,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1240,36 +876,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="G1" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="H1" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="I1" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/DataEntry/Data/Documents/DataEntry.xlsx
+++ b/DataEntry/Data/Documents/DataEntry.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114010A1-053F-4637-B06D-F88962CD736C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="IndexII" sheetId="1" r:id="rId1"/>
@@ -19,11 +13,24 @@
     <sheet name="RentDetails" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
   <si>
     <t>Token</t>
   </si>
@@ -55,6 +62,9 @@
     <t>SurveyNumber</t>
   </si>
   <si>
+    <t>City</t>
+  </si>
+  <si>
     <t>UnitArea</t>
   </si>
   <si>
@@ -64,12 +74,63 @@
     <t>Parking</t>
   </si>
   <si>
-    <t>City</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>FullName</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>AdharNumber</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>26010999904309</t>
+  </si>
+  <si>
+    <t>own</t>
+  </si>
+  <si>
+    <t>Laxman Jagannath Deokate</t>
+  </si>
+  <si>
+    <t>ten</t>
+  </si>
+  <si>
+    <t>Sachin Ganpat Mane</t>
+  </si>
+  <si>
+    <t>Laxman</t>
+  </si>
+  <si>
+    <t>Deokate</t>
+  </si>
+  <si>
+    <t>D404</t>
+  </si>
+  <si>
     <t>Laukik Ishan</t>
   </si>
   <si>
@@ -79,45 +140,6 @@
     <t>Pune</t>
   </si>
   <si>
-    <t>Party</t>
-  </si>
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>MiddleName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>FullName</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>AdharNumber</t>
-  </si>
-  <si>
-    <t>PAN</t>
-  </si>
-  <si>
-    <t>Laxman</t>
-  </si>
-  <si>
-    <t>Deokate</t>
-  </si>
-  <si>
-    <t>D404</t>
-  </si>
-  <si>
     <t>Swapna</t>
   </si>
   <si>
@@ -143,43 +165,19 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>Laxman Jagannath Deokate</t>
-  </si>
-  <si>
-    <t>Haveli</t>
-  </si>
-  <si>
-    <t>D-404</t>
-  </si>
-  <si>
-    <t>26010999904309</t>
-  </si>
-  <si>
-    <t>Laukik Ishaan</t>
-  </si>
-  <si>
-    <t>Kolhewadi</t>
-  </si>
-  <si>
-    <t>Khadakwsla</t>
-  </si>
-  <si>
-    <t>own</t>
-  </si>
-  <si>
-    <t>ten</t>
-  </si>
-  <si>
-    <t>Sachin Ganpat Mane</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,22 +186,345 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -211,29 +532,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -491,32 +1094,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.1428571428571" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="14.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="14.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="17.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="14.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="16.7142857142857" customWidth="1"/>
+    <col min="8" max="8" width="14.2857142857143" customWidth="1"/>
+    <col min="9" max="9" width="13.4285714285714" customWidth="1"/>
+    <col min="10" max="10" width="19.4285714285714" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7142857142857" customWidth="1"/>
+    <col min="12" max="14" width="9" customWidth="1"/>
+    <col min="15" max="15" width="12.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -547,7 +1151,7 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
@@ -564,79 +1168,40 @@
       </c>
       <c r="O1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2">
-        <v>411024</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="5">
-        <v>46188</v>
-      </c>
-      <c r="K2">
-        <v>605</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="2">
-        <v>46031</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" customWidth="1"/>
-    <col min="7" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="9.14285714285714" customWidth="1"/>
+    <col min="3" max="3" width="17.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="13.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="10.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="27.2857142857143" customWidth="1"/>
+    <col min="7" max="9" width="9.14285714285714" customWidth="1"/>
+    <col min="10" max="10" width="15.8571428571429" customWidth="1"/>
+    <col min="11" max="11" width="24.8571428571429" customWidth="1"/>
     <col min="12" max="12" width="20" customWidth="1"/>
-    <col min="13" max="13" width="28.140625" customWidth="1"/>
+    <col min="13" max="13" width="28.1428571428571" customWidth="1"/>
     <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="18" width="9.140625" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" customWidth="1"/>
+    <col min="15" max="18" width="9.14285714285714" customWidth="1"/>
+    <col min="19" max="19" width="12.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -644,28 +1209,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" t="s">
-        <v>25</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
@@ -683,76 +1248,78 @@
         <v>8</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P1" t="s">
         <v>2</v>
       </c>
       <c r="Q1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>40</v>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>49</v>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="18.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="9.14285714285714" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.7142857142857" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -770,7 +1337,7 @@
         <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
@@ -779,65 +1346,65 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2">
         <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J2">
         <v>411024</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
         <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
       </c>
       <c r="C3">
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J3">
         <v>411024</v>
@@ -845,30 +1412,32 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="9" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="20.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="17.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="18.4285714285714" customWidth="1"/>
+    <col min="5" max="9" width="17.2857142857143" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.4285714285714" customWidth="1"/>
+    <col min="12" max="12" width="17.5714285714286" customWidth="1"/>
+    <col min="13" max="13" width="16.8571428571429" customWidth="1"/>
+    <col min="14" max="14" width="19.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -876,28 +1445,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
         <v>14</v>
@@ -905,6 +1474,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DataEntry/Data/Documents/DataEntry.xlsx
+++ b/DataEntry/Data/Documents/DataEntry.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <x:workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738DC7EF-7764-4FE2-8828-2EFEB3835572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView windowWidth="20490" windowHeight="7500" firstSheet="0" activeTab="2"/>
+    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="0" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="TokenDetails" sheetId="5" r:id="rId1"/>
@@ -16,19 +22,6 @@
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="191029"/>
-  <x:extLst>
-    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </x:ext>
-  </x:extLst>
 </x:workbook>
 </file>
 
@@ -206,6 +199,15 @@
     <x:t>9999999999</x:t>
   </x:si>
   <x:si>
+    <x:t>26011699900017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Barde Ichharam Baliram(Kadam Vishal Bhalchandra)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16/01/2026 12:41:11</x:t>
+  </x:si>
+  <x:si>
     <x:t>Owner</x:t>
   </x:si>
   <x:si>
@@ -311,6 +313,12 @@
     <x:t>Mrs Anita Anil Kulkarni</x:t>
   </x:si>
   <x:si>
+    <x:t>9673031686</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Barde Ichharam Baliram</x:t>
+  </x:si>
+  <x:si>
     <x:t>Party</x:t>
   </x:si>
   <x:si>
@@ -378,20 +386,40 @@
   </x:si>
   <x:si>
     <x:t>FinalStatus</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kadam Vishal Bhalchandra</x:t>
+  </x:si>
+  <x:si>
+    <x:t>421503</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B-304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shivam Heights Co-op HSG SOC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shantinagar Opp Water Tank Near Panvelkar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Badlapur West</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thane</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="xr9">
-  <x:numFmts count="5">
-    <x:numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <x:numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <x:numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <x:numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <x:numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="23">
+  <x:fonts count="4">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
@@ -416,150 +444,6 @@
       <x:scheme val="minor"/>
     </x:font>
     <x:font>
-      <x:u/>
-      <x:sz val="11"/>
-      <x:color rgb="FF0000FF"/>
-      <x:name val="Calibri"/>
-      <x:charset val="0"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:u/>
-      <x:sz val="11"/>
-      <x:color rgb="FF800080"/>
-      <x:name val="Calibri"/>
-      <x:charset val="0"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:sz val="11"/>
-      <x:color rgb="FFFF0000"/>
-      <x:name val="Calibri"/>
-      <x:charset val="0"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="18"/>
-      <x:color theme="3"/>
-      <x:name val="Calibri"/>
-      <x:charset val="134"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:i/>
-      <x:sz val="11"/>
-      <x:color rgb="FF7F7F7F"/>
-      <x:name val="Calibri"/>
-      <x:charset val="0"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="15"/>
-      <x:color theme="3"/>
-      <x:name val="Calibri"/>
-      <x:charset val="134"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="13"/>
-      <x:color theme="3"/>
-      <x:name val="Calibri"/>
-      <x:charset val="134"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="11"/>
-      <x:color theme="3"/>
-      <x:name val="Calibri"/>
-      <x:charset val="134"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:sz val="11"/>
-      <x:color rgb="FF3F3F76"/>
-      <x:name val="Calibri"/>
-      <x:charset val="0"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="11"/>
-      <x:color rgb="FF3F3F3F"/>
-      <x:name val="Calibri"/>
-      <x:charset val="0"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="11"/>
-      <x:color rgb="FFFA7D00"/>
-      <x:name val="Calibri"/>
-      <x:charset val="0"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="11"/>
-      <x:color rgb="FFFFFFFF"/>
-      <x:name val="Calibri"/>
-      <x:charset val="0"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:sz val="11"/>
-      <x:color rgb="FFFA7D00"/>
-      <x:name val="Calibri"/>
-      <x:charset val="0"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="11"/>
-      <x:color theme="1"/>
-      <x:name val="Calibri"/>
-      <x:charset val="0"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:sz val="11"/>
-      <x:color rgb="FF006100"/>
-      <x:name val="Calibri"/>
-      <x:charset val="0"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:sz val="11"/>
-      <x:color rgb="FF9C0006"/>
-      <x:name val="Calibri"/>
-      <x:charset val="0"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:sz val="11"/>
-      <x:color rgb="FF9C6500"/>
-      <x:name val="Calibri"/>
-      <x:charset val="0"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:sz val="11"/>
-      <x:color theme="0"/>
-      <x:name val="Calibri"/>
-      <x:charset val="0"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:sz val="11"/>
-      <x:color theme="1"/>
-      <x:name val="Calibri"/>
-      <x:charset val="0"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
@@ -567,201 +451,15 @@
       <x:family val="2"/>
     </x:font>
   </x:fonts>
-  <x:fills count="33">
+  <x:fills count="2">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="gray125"/>
     </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFFFFCC"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFFCC99"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFF2F2F2"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFA5A5A5"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFC6EFCE"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFFC7CE"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFFEB9C"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="4"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="4" tint="0.799981688894314"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="4" tint="0.599993896298105"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="4" tint="0.399975585192419"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="5"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="5" tint="0.799981688894314"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="5" tint="0.599993896298105"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="5" tint="0.399975585192419"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="6"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="6" tint="0.799981688894314"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="6" tint="0.599993896298105"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="6" tint="0.399975585192419"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="7"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="7" tint="0.799981688894314"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="7" tint="0.599993896298105"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="7" tint="0.399975585192419"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="8"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="8" tint="0.799981688894314"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="8" tint="0.599993896298105"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="8" tint="0.399975585192419"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="9"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="9" tint="0.799981688894314"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="9" tint="0.599993896298105"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="9" tint="0.399975585192419"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
   </x:fills>
-  <x:borders count="9">
+  <x:borders count="1">
     <x:border>
       <x:left/>
       <x:right/>
@@ -769,251 +467,9 @@
       <x:bottom/>
       <x:diagonal/>
     </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color rgb="FFB2B2B2"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FFB2B2B2"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="FFB2B2B2"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="FFB2B2B2"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom style="medium">
-        <x:color theme="4"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom style="medium">
-        <x:color theme="4" tint="0.499984740745262"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color rgb="FF7F7F7F"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FF7F7F7F"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="FF7F7F7F"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="FF7F7F7F"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color rgb="FF3F3F3F"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FF3F3F3F"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="FF3F3F3F"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="FF3F3F3F"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left style="double">
-        <x:color rgb="FF3F3F3F"/>
-      </x:left>
-      <x:right style="double">
-        <x:color rgb="FF3F3F3F"/>
-      </x:right>
-      <x:top style="double">
-        <x:color rgb="FF3F3F3F"/>
-      </x:top>
-      <x:bottom style="double">
-        <x:color rgb="FF3F3F3F"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom style="double">
-        <x:color rgb="FFFF8001"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top style="thin">
-        <x:color theme="4"/>
-      </x:top>
-      <x:bottom style="double">
-        <x:color theme="4"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="56">
+  <x:cellStyleXfs count="8">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <x:xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
     <x:xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1023,10 +479,10 @@
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="180" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="14" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -1040,69 +496,24 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <x:xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <x:xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <x:xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="center"/>
     </x:xf>
     <x:xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <x:xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </x:cellXfs>
-  <x:cellStyles count="49">
+  <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <x:cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <x:cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <x:cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <x:cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <x:cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <x:cellStyle name="Link" xfId="6" builtinId="8"/>
-    <x:cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <x:cellStyle name="Note" xfId="8" builtinId="10"/>
-    <x:cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <x:cellStyle name="Title" xfId="10" builtinId="15"/>
-    <x:cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <x:cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <x:cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <x:cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <x:cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <x:cellStyle name="Input" xfId="16" builtinId="20"/>
-    <x:cellStyle name="Output" xfId="17" builtinId="21"/>
-    <x:cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <x:cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <x:cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <x:cellStyle name="Total" xfId="21" builtinId="25"/>
-    <x:cellStyle name="Good" xfId="22" builtinId="26"/>
-    <x:cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <x:cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <x:cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <x:cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <x:cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <x:cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <x:cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <x:cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <x:cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <x:cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <x:cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <x:cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <x:cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <x:cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <x:cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <x:cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <x:cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <x:cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <x:cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <x:cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <x:cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <x:cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <x:cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <x:cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <x:cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <x:cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </x:cellStyles>
   <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <x:extLst>
     <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </x:ext>
   </x:extLst>
 </x:styleSheet>
@@ -1360,39 +771,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:Q12"/>
+  <x:dimension ref="A1:Q13"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="C1" workbookViewId="0">
-      <x:selection activeCell="C13" sqref="C13 13:13"/>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="A14" sqref="A14 14:14"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.996339" defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="28.285714" style="5" customWidth="1"/>
-    <x:col min="2" max="2" width="64.285714" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="17.571429" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="12.428571" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="9.571429" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.142857" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="6.714286" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="28.285156" style="5" customWidth="1"/>
+    <x:col min="2" max="2" width="64.285156" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="17.570312" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="12.425781" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="9.570312" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="6.710938" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="25" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="7.142857" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="8.428571" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="7.140625" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="8.425781" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="21" style="0" customWidth="1"/>
     <x:col min="12" max="12" width="19" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="20.857143" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="23.857143" style="0" customWidth="1"/>
-    <x:col min="15" max="15" width="16.714286" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="20.855469" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="23.855469" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="16.710938" style="0" customWidth="1"/>
     <x:col min="16" max="16" width="15" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="12.142857" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="12.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:17" ht="23.25" customHeight="1">
@@ -2081,6 +1493,35 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="Q13" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:17">
+      <x:c r="A14" s="5" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
@@ -2094,31 +1535,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0100-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:P1"/>
+  <x:dimension ref="A1:P2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="A2" sqref="A2 2:2"/>
+      <x:selection activeCell="A3" sqref="A3 3:3"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.996339" defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="25.142857" style="5" customWidth="1"/>
-    <x:col min="2" max="3" width="21.428571" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="21.571429" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="25.140625" style="5" customWidth="1"/>
+    <x:col min="2" max="3" width="21.425781" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="21.570312" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="21" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="17.285714" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="14.714286" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="16.714286" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="14.285714" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="13.428571" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="19.428571" style="5" customWidth="1"/>
-    <x:col min="12" max="12" width="12.714286" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="17.285156" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="14.710938" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="16.710938" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="14.285156" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="13.425781" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="19.425781" style="5" customWidth="1"/>
+    <x:col min="12" max="12" width="12.710938" style="0" customWidth="1"/>
     <x:col min="13" max="15" width="9" style="0" customWidth="1"/>
-    <x:col min="16" max="16" width="12.857143" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="12.855469" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:16">
@@ -2126,49 +1567,49 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F1" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G1" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H1" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="I1" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="J1" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="K1" s="5" t="s">
-        <x:v>66</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="L1" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="M1" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="N1" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O1" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="P1" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:16">
@@ -2176,37 +1617,75 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="J2" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="K2" s="5" t="s">
-        <x:v>79</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="L2" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>83</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:16">
+      <x:c r="A3" s="5" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="K3" s="5" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="L3" s="0" t="s">
+        <x:v>127</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2219,30 +1698,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0200-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:M3"/>
+  <x:dimension ref="A1:M4"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="B8" sqref="B8"/>
+      <x:selection activeCell="C10" sqref="C10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.139196" defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="19.285714" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="20.142857" style="5" customWidth="1"/>
-    <x:col min="3" max="4" width="24.142857" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="20.285714" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="17.857143" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="18.428571" style="0" customWidth="1"/>
-    <x:col min="8" max="12" width="17.285714" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="19.285156" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="20.140625" style="5" customWidth="1"/>
+    <x:col min="3" max="4" width="24.140625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="20.285156" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="17.855469" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="18.425781" style="0" customWidth="1"/>
+    <x:col min="8" max="12" width="17.285156" style="0" customWidth="1"/>
     <x:col min="13" max="13" width="19" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="14.428571" style="0" customWidth="1"/>
-    <x:col min="15" max="15" width="17.571429" style="0" customWidth="1"/>
-    <x:col min="16" max="16" width="16.857143" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="19.142857" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="14.425781" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="17.570312" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="16.855469" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="19.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:17">
@@ -2253,37 +1732,37 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F1" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G1" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H1" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I1" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="J1" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="K1" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="L1" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="M1" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:17">
@@ -2294,10 +1773,10 @@
         <x:v>9820126565</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E2" s="0">
         <x:v>11</x:v>
@@ -2335,10 +1814,10 @@
         <x:v>7020155684</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E3" s="0">
         <x:v>11</x:v>
@@ -2365,6 +1844,44 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="M3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:17">
+      <x:c r="B4" s="5" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E4" s="0">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F4" s="6">
+        <x:v>46024</x:v>
+      </x:c>
+      <x:c r="G4" s="0">
+        <x:v>40000</x:v>
+      </x:c>
+      <x:c r="H4" s="0">
+        <x:v>20000</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="L4" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="M4" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
@@ -2378,7 +1895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0300-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -2390,20 +1907,20 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.139196" defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="16.571429" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="15.714286" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="17.285714" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="13.714286" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.571429" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="27.285714" style="0" customWidth="1"/>
-    <x:col min="7" max="9" width="9.142857" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="15.857143" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="24.857143" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="16.570312" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="15.710938" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="17.285156" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="13.710938" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="10.570312" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="27.285156" style="0" customWidth="1"/>
+    <x:col min="7" max="9" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="15.855469" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="24.855469" style="0" customWidth="1"/>
     <x:col min="12" max="12" width="20" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="28.142857" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="28.140625" style="0" customWidth="1"/>
     <x:col min="14" max="14" width="18" style="0" customWidth="1"/>
-    <x:col min="15" max="18" width="9.142857" style="0" customWidth="1"/>
-    <x:col min="19" max="19" width="12.571429" style="0" customWidth="1"/>
+    <x:col min="15" max="18" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="19" max="19" width="12.570312" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:19">
@@ -2411,58 +1928,58 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F1" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G1" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H1" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="I1" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="J1" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="K1" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="L1" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="M1" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="N1" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="O1" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="P1" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="L1" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="M1" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="N1" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="O1" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="P1" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
       <x:c r="Q1" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="R1" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="S1" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2475,7 +1992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0400-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -2487,76 +2004,76 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.139196" defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="16.857143" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="18.142857" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.142857" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="16.855469" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="18.140625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.140625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="16" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="14.714286" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="14.710938" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="18" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="J1" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="F1" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="G1" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="H1" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="I1" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="J1" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
       <x:c r="K1" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:11">
       <x:c r="A2" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C2" s="0">
         <x:v>42</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="J2" s="0">
         <x:v>411024</x:v>
@@ -2564,31 +2081,31 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C3" s="0">
         <x:v>42</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="J3" s="0">
         <x:v>411024</x:v>
@@ -2604,7 +2121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0500-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -2621,52 +2138,52 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C1" s="3" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D1" s="2" t="s">
-        <x:v>108</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E1" s="2" t="s">
-        <x:v>109</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F1" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G1" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H1" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="I1" s="2" t="s">
-        <x:v>110</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="J1" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="K1" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="L1" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="M1" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="N1" s="2" t="s">
-        <x:v>111</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="O1" s="4" t="s">
-        <x:v>112</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="P1" s="4" t="s">
-        <x:v>113</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="Q1" s="4" t="s">
-        <x:v>114</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/DataEntry/Data/Documents/DataEntry.xlsx
+++ b/DataEntry/Data/Documents/DataEntry.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
+<x:workbook xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <x:workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738DC7EF-7764-4FE2-8828-2EFEB3835572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="0" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView windowWidth="20490" windowHeight="7500" firstSheet="0" activeTab="3"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="TokenDetails" sheetId="5" r:id="rId1"/>
@@ -22,6 +16,19 @@
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="191029"/>
+  <x:extLst>
+    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </x:ext>
+  </x:extLst>
 </x:workbook>
 </file>
 
@@ -79,6 +86,15 @@
     <x:t>PVStatus</x:t>
   </x:si>
   <x:si>
+    <x:t>City</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OwnerAdhar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TenantAdhar</x:t>
+  </x:si>
+  <x:si>
     <x:t>25122299900005</x:t>
   </x:si>
   <x:si>
@@ -184,30 +200,6 @@
     <x:t>zakasman@gmail.com</x:t>
   </x:si>
   <x:si>
-    <x:t>26011599903103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Manoj Bhaskar Zambare(Patil Ranjit Sahadeo)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15/01/2026 10:58:24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9820126565</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9999999999</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26011699900017</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Barde Ichharam Baliram(Kadam Vishal Bhalchandra)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16/01/2026 12:41:11</x:t>
-  </x:si>
-  <x:si>
     <x:t>Owner</x:t>
   </x:si>
   <x:si>
@@ -238,132 +230,159 @@
     <x:t>SurveyNumber</x:t>
   </x:si>
   <x:si>
-    <x:t>City</x:t>
-  </x:si>
-  <x:si>
     <x:t>UnitArea</x:t>
   </x:si>
   <x:si>
-    <x:t>Gallary</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Parking</x:t>
-  </x:si>
-  <x:si>
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>OwnerPAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TenantType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Duration</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StartDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Deposit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RentAmount</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Registration</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StampDuty</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DHC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Total</x:t>
+  </x:si>
+  <x:si>
     <x:t>Manoj Bhaskar Zambare</x:t>
   </x:si>
   <x:si>
-    <x:t>Patil Ranjit Sahadeo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>411045</x:t>
-  </x:si>
-  <x:si>
-    <x:t>T2/1301</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Godrej Hillside</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nande- Balewadi road</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahalunge</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46/9, 46/10, and 47/1</x:t>
+    <x:t>Renew</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mrs Anita Anil Kulkarni</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACOPB0062D</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Barde Ichharam Baliram</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Party</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DocType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FirstName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MiddleName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LastName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FullName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Age</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contact</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gender</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Adhar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ten</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sachin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ganpat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pawar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sachin Ganpat Pawar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9823228976</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Male</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pawar House</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Barvi Dam Road</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mulgaon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maruti Mandir</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Badlapur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>421503</x:t>
+  </x:si>
+  <x:si>
+    <x:t>488551622717</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BAFPP7944G</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16/01/2026</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Laxman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Deokate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D404</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Laukik Ishan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sinhgad Road</x:t>
   </x:si>
   <x:si>
     <x:t>Pune</x:t>
   </x:si>
   <x:si>
-    <x:t>TenantType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Duration</x:t>
-  </x:si>
-  <x:si>
-    <x:t>StartDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Deposit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RentAmount</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Registration</x:t>
-  </x:si>
-  <x:si>
-    <x:t>StampDuty</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DHC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Total</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Renew</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mrs Anita Anil Kulkarni</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9673031686</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Barde Ichharam Baliram</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Party</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FirstName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MiddleName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LastName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FullName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Age</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gender</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contact</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdharNumber</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Laxman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Deokate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>D404</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Laukik Ishan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sinhgad Road</x:t>
-  </x:si>
-  <x:si>
     <x:t>Swapna</x:t>
   </x:si>
   <x:si>
@@ -386,40 +405,20 @@
   </x:si>
   <x:si>
     <x:t>FinalStatus</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kadam Vishal Bhalchandra</x:t>
-  </x:si>
-  <x:si>
-    <x:t>421503</x:t>
-  </x:si>
-  <x:si>
-    <x:t>B-304</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shivam Heights Co-op HSG SOC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shantinagar Opp Water Tank Near Panvelkar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Badlapur West</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thane</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
-  <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="xr9">
+  <x:numFmts count="5">
+    <x:numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <x:numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <x:numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <x:numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <x:numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
   </x:numFmts>
-  <x:fonts count="4">
+  <x:fonts count="24">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
@@ -444,6 +443,156 @@
       <x:scheme val="minor"/>
     </x:font>
     <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Helvetica"/>
+      <x:charset val="134"/>
+    </x:font>
+    <x:font>
+      <x:u/>
+      <x:sz val="11"/>
+      <x:color rgb="FF0000FF"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:u/>
+      <x:sz val="11"/>
+      <x:color rgb="FF800080"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FFFF0000"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="18"/>
+      <x:color theme="3"/>
+      <x:name val="Calibri"/>
+      <x:charset val="134"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:i/>
+      <x:sz val="11"/>
+      <x:color rgb="FF7F7F7F"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="15"/>
+      <x:color theme="3"/>
+      <x:name val="Calibri"/>
+      <x:charset val="134"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="13"/>
+      <x:color theme="3"/>
+      <x:name val="Calibri"/>
+      <x:charset val="134"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:color theme="3"/>
+      <x:name val="Calibri"/>
+      <x:charset val="134"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FF3F3F76"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:color rgb="FF3F3F3F"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:color rgb="FFFA7D00"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:color rgb="FFFFFFFF"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FFFA7D00"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FF006100"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FF9C0006"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FF9C6500"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="0"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
@@ -451,15 +600,201 @@
       <x:family val="2"/>
     </x:font>
   </x:fonts>
-  <x:fills count="2">
+  <x:fills count="33">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="gray125"/>
     </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFFFCC"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFCC99"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFF2F2F2"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFA5A5A5"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFC6EFCE"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFC7CE"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFEB9C"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="4"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="4" tint="0.799981688894314"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="4" tint="0.599993896298105"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="4" tint="0.399975585192419"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="5"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="5" tint="0.799981688894314"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="5" tint="0.599993896298105"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="5" tint="0.399975585192419"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="6"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="6" tint="0.799981688894314"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="6" tint="0.599993896298105"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="6" tint="0.399975585192419"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="7"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="7" tint="0.799981688894314"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="7" tint="0.599993896298105"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="7" tint="0.399975585192419"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="8"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="8" tint="0.799981688894314"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="8" tint="0.599993896298105"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="8" tint="0.399975585192419"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="9"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="9" tint="0.799981688894314"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="9" tint="0.599993896298105"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="9" tint="0.399975585192419"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
   </x:fills>
-  <x:borders count="1">
+  <x:borders count="9">
     <x:border>
       <x:left/>
       <x:right/>
@@ -467,9 +802,251 @@
       <x:bottom/>
       <x:diagonal/>
     </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="FFB2B2B2"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FFB2B2B2"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FFB2B2B2"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FFB2B2B2"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom style="medium">
+        <x:color theme="4"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom style="medium">
+        <x:color theme="4" tint="0.499984740745262"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="FF7F7F7F"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF7F7F7F"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF7F7F7F"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF7F7F7F"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="FF3F3F3F"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF3F3F3F"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF3F3F3F"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF3F3F3F"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="double">
+        <x:color rgb="FF3F3F3F"/>
+      </x:left>
+      <x:right style="double">
+        <x:color rgb="FF3F3F3F"/>
+      </x:right>
+      <x:top style="double">
+        <x:color rgb="FF3F3F3F"/>
+      </x:top>
+      <x:bottom style="double">
+        <x:color rgb="FF3F3F3F"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom style="double">
+        <x:color rgb="FFFF8001"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top style="thin">
+        <x:color theme="4"/>
+      </x:top>
+      <x:bottom style="double">
+        <x:color theme="4"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="8">
+  <x:cellStyleXfs count="57">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -479,41 +1056,90 @@
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="180" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="1" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="8">
+  <x:cellXfs count="9">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <x:xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <x:xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <x:xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="center"/>
     </x:xf>
-    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <x:xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </x:cellXfs>
-  <x:cellStyles count="1">
+  <x:cellStyles count="49">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <x:cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <x:cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <x:cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <x:cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <x:cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <x:cellStyle name="Link" xfId="6" builtinId="8"/>
+    <x:cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <x:cellStyle name="Note" xfId="8" builtinId="10"/>
+    <x:cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <x:cellStyle name="Title" xfId="10" builtinId="15"/>
+    <x:cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <x:cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <x:cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <x:cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <x:cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <x:cellStyle name="Input" xfId="16" builtinId="20"/>
+    <x:cellStyle name="Output" xfId="17" builtinId="21"/>
+    <x:cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <x:cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <x:cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <x:cellStyle name="Total" xfId="21" builtinId="25"/>
+    <x:cellStyle name="Good" xfId="22" builtinId="26"/>
+    <x:cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <x:cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <x:cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <x:cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <x:cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <x:cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <x:cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <x:cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <x:cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <x:cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <x:cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <x:cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <x:cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <x:cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <x:cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <x:cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <x:cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <x:cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <x:cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <x:cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <x:cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <x:cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <x:cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <x:cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <x:cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <x:cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </x:cellStyles>
   <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <x:extLst>
     <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </x:ext>
   </x:extLst>
 </x:styleSheet>
@@ -771,43 +1397,42 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:Q13"/>
+  <x:dimension ref="A1:T12"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="A14" sqref="A14 14:14"/>
+      <x:selection activeCell="A13" sqref="A13 13:13"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.996339" defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="28.285156" style="5" customWidth="1"/>
-    <x:col min="2" max="2" width="64.285156" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="17.570312" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="12.425781" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="9.570312" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="6.710938" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="22.142857" style="5" customWidth="1"/>
+    <x:col min="2" max="2" width="30.571429" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="19.714286" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="12.428571" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="22.714286" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="14.857143" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="6.714286" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="25" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="7.140625" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="8.425781" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="7.142857" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="8.428571" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="21" style="0" customWidth="1"/>
     <x:col min="12" max="12" width="19" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="20.855469" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="23.855469" style="0" customWidth="1"/>
-    <x:col min="15" max="15" width="16.710938" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="20.857143" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="23.857143" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="16.714286" style="0" customWidth="1"/>
     <x:col min="16" max="16" width="15" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="12.140625" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="12.142857" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:17" ht="23.25" customHeight="1">
+    <x:row r="1" spans="1:20" ht="23.25" customHeight="1">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -859,670 +1484,597 @@
       <x:c r="Q1" s="2" t="s">
         <x:v>16</x:v>
       </x:c>
+      <x:c r="R1" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="S1" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="T1" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:17">
+    <x:row r="2" spans="1:20">
       <x:c r="A2" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C2" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E2" s="6">
         <x:v>46032</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H2" s="0">
         <x:v>9226771488</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J2" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="K2" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L2" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="M2" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="N2" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="O2" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="P2" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="Q2" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:17">
+    <x:row r="3" spans="1:20">
       <x:c r="A3" s="5" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C3" s="6" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C3" s="6" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
       <x:c r="E3" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H3" s="0">
         <x:v>8689888190</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="K3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="M3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="N3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="O3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="P3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="Q3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:17">
+    <x:row r="4" spans="1:20">
       <x:c r="A4" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C4" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E4" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H4" s="0">
         <x:v>9226771488</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="J4" s="7" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="K4" s="7" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="L4" s="7" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J4" s="8" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="K4" s="8" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L4" s="8" t="s">
+        <x:v>22</x:v>
       </x:c>
       <x:c r="M4" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="N4" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="O4" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="P4" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="Q4" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:17">
+    <x:row r="5" spans="1:20">
       <x:c r="A5" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J5" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="K5" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L5" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="M5" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="N5" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="O5" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="P5" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="Q5" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:17">
+    <x:row r="6" spans="1:20">
       <x:c r="A6" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J6" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="K6" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L6" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="M6" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="N6" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="O6" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="P6" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="Q6" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:17">
+    <x:row r="7" spans="1:20">
       <x:c r="A7" s="5" t="s">
-        <x:v>33</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J7" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="K7" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L7" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="M7" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="N7" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="O7" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="P7" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="Q7" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:17">
+    <x:row r="8" spans="1:20">
       <x:c r="A8" s="5" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J8" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="K8" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L8" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="M8" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="N8" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="O8" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="P8" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="Q8" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:17">
+    <x:row r="9" spans="1:20">
       <x:c r="A9" s="5" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C9" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E9" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J9" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="K9" s="7" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="L9" s="7" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="K9" s="8" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L9" s="8" t="s">
+        <x:v>22</x:v>
       </x:c>
       <x:c r="M9" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="N9" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="O9" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="P9" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="Q9" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:17">
+    <x:row r="10" spans="1:20">
       <x:c r="A10" s="5" t="s">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C10" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E10" s="6">
         <x:v>46027</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H10" s="0">
         <x:v>9766484746</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J10" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="K10" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="L10" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="M10" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="N10" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="O10" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="P10" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="Q10" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:17">
+    <x:row r="11" spans="1:20">
       <x:c r="A11" s="5" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C11" s="6" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
         <x:v>45</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="C11" s="6" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>42</x:v>
       </x:c>
       <x:c r="E11" s="6">
         <x:v>46031</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J11" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="K11" s="7" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="L11" s="7" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="K11" s="8" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L11" s="8" t="s">
+        <x:v>22</x:v>
       </x:c>
       <x:c r="M11" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="N11" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="O11" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="P11" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="Q11" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:17">
+    <x:row r="12" spans="1:20">
       <x:c r="A12" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E12" s="6">
         <x:v>46036</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J12" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="K12" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L12" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="M12" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="N12" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="O12" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="P12" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="Q12" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:17">
-      <x:c r="A13" s="5" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="E13" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="F13" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G13" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H13" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="I13" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="J13" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="K13" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="L13" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="M13" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="N13" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="O13" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="P13" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="Q13" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:17">
-      <x:c r="A14" s="5" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="E14" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="F14" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G14" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H14" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I14" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1535,157 +2087,75 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0100-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:P2"/>
+  <x:dimension ref="A1:N1"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="A3" sqref="A3 3:3"/>
+    <x:sheetView topLeftCell="E1" workbookViewId="0">
+      <x:selection activeCell="E2" sqref="E2 2:2"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.996339" defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="25.140625" style="5" customWidth="1"/>
-    <x:col min="2" max="3" width="21.425781" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="21.570312" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="25.142857" style="5" customWidth="1"/>
+    <x:col min="2" max="3" width="21.428571" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="21.571429" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="21" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="17.285156" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="14.710938" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="16.710938" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="14.285156" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="13.425781" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="19.425781" style="5" customWidth="1"/>
-    <x:col min="12" max="12" width="12.710938" style="0" customWidth="1"/>
-    <x:col min="13" max="15" width="9" style="0" customWidth="1"/>
-    <x:col min="16" max="16" width="12.855469" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="17.285714" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="14.714286" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="16.714286" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="14.285714" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="13.428571" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="19.428571" style="5" customWidth="1"/>
+    <x:col min="12" max="12" width="12.714286" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="9" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="12.857143" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:16">
+    <x:row r="1" spans="1:14">
       <x:c r="A1" s="5" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="C1" s="0" t="s">
+      <x:c r="H1" s="0" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="D1" s="0" t="s">
+      <x:c r="I1" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="E1" s="0" t="s">
+      <x:c r="J1" s="0" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="F1" s="0" t="s">
+      <x:c r="K1" s="5" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="G1" s="0" t="s">
+      <x:c r="L1" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="M1" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="H1" s="0" t="s">
+      <x:c r="N1" s="0" t="s">
         <x:v>66</x:v>
-      </x:c>
-      <x:c r="I1" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="J1" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="K1" s="5" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="L1" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="M1" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="N1" s="0" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="O1" s="0" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="P1" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:16">
-      <x:c r="A2" s="5" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="I2" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="J2" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="K2" s="5" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="L2" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:16">
-      <x:c r="A3" s="5" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="I3" s="0" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="J3" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="K3" s="5" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="L3" s="0" t="s">
-        <x:v>127</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1698,30 +2168,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0200-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
   <x:dimension ref="A1:M4"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
+    <x:sheetView workbookViewId="0">
       <x:selection activeCell="C10" sqref="C10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.139196" defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="19.285156" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="20.140625" style="5" customWidth="1"/>
-    <x:col min="3" max="4" width="24.140625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="20.285156" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="17.855469" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="18.425781" style="0" customWidth="1"/>
-    <x:col min="8" max="12" width="17.285156" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="19.285714" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="20.142857" style="5" customWidth="1"/>
+    <x:col min="3" max="4" width="24.142857" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="20.285714" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="17.857143" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="18.428571" style="0" customWidth="1"/>
+    <x:col min="8" max="12" width="17.285714" style="0" customWidth="1"/>
     <x:col min="13" max="13" width="19" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="14.425781" style="0" customWidth="1"/>
-    <x:col min="15" max="15" width="17.570312" style="0" customWidth="1"/>
-    <x:col min="16" max="16" width="16.855469" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="19.140625" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="14.428571" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="17.571429" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="16.857143" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="19.142857" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:17">
@@ -1729,54 +2199,54 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F1" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G1" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H1" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I1" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="J1" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="K1" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="L1" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="M1" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:17">
       <x:c r="A2" s="5" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B2" s="5">
-        <x:v>9820126565</x:v>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B2" s="5" t="s">
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E2" s="0">
         <x:v>11</x:v>
@@ -1791,33 +2261,33 @@
         <x:v>20000</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J2" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="K2" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L2" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="M2" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:17">
       <x:c r="A3" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B3" s="5">
-        <x:v>7020155684</x:v>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B3" s="5" t="s">
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E3" s="0">
         <x:v>11</x:v>
@@ -1832,30 +2302,30 @@
         <x:v>20000</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="K3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="M3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:17">
-      <x:c r="B4" s="5" t="s">
-        <x:v>95</x:v>
+      <x:c r="B4" s="7" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E4" s="0">
         <x:v>12</x:v>
@@ -1870,19 +2340,19 @@
         <x:v>20000</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J4" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="K4" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L4" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="M4" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1895,91 +2365,222 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0300-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:S1"/>
+  <x:dimension ref="A1:T2"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="B14" sqref="B14"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="A10" sqref="A10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.139196" defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="16.570312" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="15.710938" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="17.285156" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="13.710938" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.570312" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="27.285156" style="0" customWidth="1"/>
-    <x:col min="7" max="9" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="15.855469" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="24.855469" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="20" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="28.140625" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="18" style="0" customWidth="1"/>
-    <x:col min="15" max="18" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="19" max="19" width="12.570312" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="16.571429" style="0" customWidth="1"/>
+    <x:col min="2" max="3" width="15.714286" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="17.285714" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="13.714286" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="10.571429" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="27.285714" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="11.857143" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="11.714286" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="9.142857" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="15.857143" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="24.857143" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="20" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="28.142857" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="18" style="0" customWidth="1"/>
+    <x:col min="16" max="17" width="9.142857" style="0" customWidth="1"/>
+    <x:col min="18" max="18" width="14.571429" style="0" customWidth="1"/>
+    <x:col min="19" max="19" width="9.142857" style="0" customWidth="1"/>
+    <x:col min="20" max="20" width="12.571429" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:19">
+    <x:row r="1" spans="1:20">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="J1" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="K1" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="L1" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="M1" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="N1" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="O1" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="P1" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="Q1" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="R1" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="S1" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="T1" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:20">
+      <x:c r="A2" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="C1" s="0" t="s">
+      <x:c r="H2" s="0" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="D1" s="0" t="s">
+      <x:c r="I2" s="0" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="E1" s="0" t="s">
+      <x:c r="J2" s="0" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="F1" s="0" t="s">
+      <x:c r="K2" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L2" s="0" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="G1" s="0" t="s">
+      <x:c r="M2" s="0" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="H1" s="0" t="s">
+      <x:c r="N2" s="0" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="I1" s="0" t="s">
+      <x:c r="O2" s="0" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="J1" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="K1" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="L1" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="M1" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="N1" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="O1" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="P1" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="Q1" s="0" t="s">
+      <x:c r="P2" s="0" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="R1" s="0" t="s">
+      <x:c r="Q2" s="0" t="s">
         <x:v>106</x:v>
       </x:c>
-      <x:c r="S1" s="0" t="s">
-        <x:v>74</x:v>
+      <x:c r="R2" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="S2" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="T2" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:20">
+      <x:c r="A3" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L3" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="M3" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="N3" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="O3" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="P3" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="Q3" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="R3" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="S3" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="T3" s="0" t="s">
+        <x:v>109</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1992,7 +2593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0400-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -2004,76 +2605,76 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.139196" defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="16.855469" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="18.140625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="16.857143" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="18.142857" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.142857" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="16" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="14.710938" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="14.714286" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="18" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F1" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="J1" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="K1" s="0" t="s">
         <x:v>66</x:v>
-      </x:c>
-      <x:c r="G1" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="H1" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="I1" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="J1" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="K1" s="0" t="s">
-        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:11">
       <x:c r="A2" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C2" s="0">
         <x:v>42</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="J2" s="0">
         <x:v>411024</x:v>
@@ -2081,31 +2682,31 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C3" s="0">
         <x:v>42</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="J3" s="0">
         <x:v>411024</x:v>
@@ -2121,7 +2722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0500-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -2138,52 +2739,52 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C1" s="3" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D1" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="E1" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="F1" s="2" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="D1" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="E1" s="2" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="F1" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
       <x:c r="G1" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H1" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I1" s="2" t="s">
-        <x:v>115</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="J1" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="K1" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="L1" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="M1" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N1" s="2" t="s">
-        <x:v>116</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="O1" s="4" t="s">
-        <x:v>117</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="P1" s="4" t="s">
-        <x:v>118</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="Q1" s="4" t="s">
-        <x:v>119</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/DataEntry/Data/Documents/DataEntry.xlsx
+++ b/DataEntry/Data/Documents/DataEntry.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
   <x:workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D5DABD-ECF6-4C57-8EEB-FADA79755263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView windowWidth="20490" windowHeight="7500" firstSheet="0" activeTab="3"/>
+    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="0" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="TokenDetails" sheetId="5" r:id="rId1"/>
@@ -16,19 +22,6 @@
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="191029"/>
-  <x:extLst>
-    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </x:ext>
-  </x:extLst>
 </x:workbook>
 </file>
 
@@ -200,6 +193,15 @@
     <x:t>zakasman@gmail.com</x:t>
   </x:si>
   <x:si>
+    <x:t>26011799900019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Barde Ichharam Baliram(Kadam Vishal Bhalchandra)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17/01/2026 12:28:32</x:t>
+  </x:si>
+  <x:si>
     <x:t>Owner</x:t>
   </x:si>
   <x:si>
@@ -236,6 +238,33 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>Barde Ichharam Baliram</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kadam Vishal Bhalchandra</x:t>
+  </x:si>
+  <x:si>
+    <x:t>421503</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B-304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shivam Heights Co-op HSG SOC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shantinagar Opp Water Tank Near Panvelkar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Belavali Badlapur West</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Badalapur</x:t>
+  </x:si>
+  <x:si>
     <x:t>OwnerPAN</x:t>
   </x:si>
   <x:si>
@@ -278,9 +307,6 @@
     <x:t>ACOPB0062D</x:t>
   </x:si>
   <x:si>
-    <x:t>Barde Ichharam Baliram</x:t>
-  </x:si>
-  <x:si>
     <x:t>Party</x:t>
   </x:si>
   <x:si>
@@ -353,9 +379,6 @@
     <x:t>Badlapur</x:t>
   </x:si>
   <x:si>
-    <x:t>421503</x:t>
-  </x:si>
-  <x:si>
     <x:t>488551622717</x:t>
   </x:si>
   <x:si>
@@ -405,20 +428,25 @@
   </x:si>
   <x:si>
     <x:t>FinalStatus</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9011092282</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B-304, Shivam Heights Co-op HSG SOC, -</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shantinagar Opp Water Tank Near Panvelkar, Belavali Badlapur West</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="xr9">
-  <x:numFmts count="5">
-    <x:numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <x:numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <x:numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <x:numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <x:numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="24">
+  <x:fonts count="5">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
@@ -449,150 +477,6 @@
       <x:charset val="134"/>
     </x:font>
     <x:font>
-      <x:u/>
-      <x:sz val="11"/>
-      <x:color rgb="FF0000FF"/>
-      <x:name val="Calibri"/>
-      <x:charset val="0"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:u/>
-      <x:sz val="11"/>
-      <x:color rgb="FF800080"/>
-      <x:name val="Calibri"/>
-      <x:charset val="0"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:sz val="11"/>
-      <x:color rgb="FFFF0000"/>
-      <x:name val="Calibri"/>
-      <x:charset val="0"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="18"/>
-      <x:color theme="3"/>
-      <x:name val="Calibri"/>
-      <x:charset val="134"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:i/>
-      <x:sz val="11"/>
-      <x:color rgb="FF7F7F7F"/>
-      <x:name val="Calibri"/>
-      <x:charset val="0"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="15"/>
-      <x:color theme="3"/>
-      <x:name val="Calibri"/>
-      <x:charset val="134"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="13"/>
-      <x:color theme="3"/>
-      <x:name val="Calibri"/>
-      <x:charset val="134"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="11"/>
-      <x:color theme="3"/>
-      <x:name val="Calibri"/>
-      <x:charset val="134"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:sz val="11"/>
-      <x:color rgb="FF3F3F76"/>
-      <x:name val="Calibri"/>
-      <x:charset val="0"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="11"/>
-      <x:color rgb="FF3F3F3F"/>
-      <x:name val="Calibri"/>
-      <x:charset val="0"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="11"/>
-      <x:color rgb="FFFA7D00"/>
-      <x:name val="Calibri"/>
-      <x:charset val="0"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="11"/>
-      <x:color rgb="FFFFFFFF"/>
-      <x:name val="Calibri"/>
-      <x:charset val="0"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:sz val="11"/>
-      <x:color rgb="FFFA7D00"/>
-      <x:name val="Calibri"/>
-      <x:charset val="0"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="11"/>
-      <x:color theme="1"/>
-      <x:name val="Calibri"/>
-      <x:charset val="0"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:sz val="11"/>
-      <x:color rgb="FF006100"/>
-      <x:name val="Calibri"/>
-      <x:charset val="0"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:sz val="11"/>
-      <x:color rgb="FF9C0006"/>
-      <x:name val="Calibri"/>
-      <x:charset val="0"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:sz val="11"/>
-      <x:color rgb="FF9C6500"/>
-      <x:name val="Calibri"/>
-      <x:charset val="0"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:sz val="11"/>
-      <x:color theme="0"/>
-      <x:name val="Calibri"/>
-      <x:charset val="0"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:sz val="11"/>
-      <x:color theme="1"/>
-      <x:name val="Calibri"/>
-      <x:charset val="0"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
@@ -600,201 +484,15 @@
       <x:family val="2"/>
     </x:font>
   </x:fonts>
-  <x:fills count="33">
+  <x:fills count="2">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="gray125"/>
     </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFFFFCC"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFFCC99"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFF2F2F2"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFA5A5A5"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFC6EFCE"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFFC7CE"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFFEB9C"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="4"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="4" tint="0.799981688894314"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="4" tint="0.599993896298105"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="4" tint="0.399975585192419"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="5"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="5" tint="0.799981688894314"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="5" tint="0.599993896298105"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="5" tint="0.399975585192419"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="6"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="6" tint="0.799981688894314"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="6" tint="0.599993896298105"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="6" tint="0.399975585192419"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="7"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="7" tint="0.799981688894314"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="7" tint="0.599993896298105"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="7" tint="0.399975585192419"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="8"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="8" tint="0.799981688894314"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="8" tint="0.599993896298105"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="8" tint="0.399975585192419"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="9"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="9" tint="0.799981688894314"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="9" tint="0.599993896298105"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor theme="9" tint="0.399975585192419"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
   </x:fills>
-  <x:borders count="9">
+  <x:borders count="1">
     <x:border>
       <x:left/>
       <x:right/>
@@ -802,251 +500,9 @@
       <x:bottom/>
       <x:diagonal/>
     </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color rgb="FFB2B2B2"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FFB2B2B2"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="FFB2B2B2"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="FFB2B2B2"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom style="medium">
-        <x:color theme="4"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom style="medium">
-        <x:color theme="4" tint="0.499984740745262"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color rgb="FF7F7F7F"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FF7F7F7F"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="FF7F7F7F"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="FF7F7F7F"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color rgb="FF3F3F3F"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FF3F3F3F"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="FF3F3F3F"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="FF3F3F3F"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left style="double">
-        <x:color rgb="FF3F3F3F"/>
-      </x:left>
-      <x:right style="double">
-        <x:color rgb="FF3F3F3F"/>
-      </x:right>
-      <x:top style="double">
-        <x:color rgb="FF3F3F3F"/>
-      </x:top>
-      <x:bottom style="double">
-        <x:color rgb="FF3F3F3F"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom style="double">
-        <x:color rgb="FFFF8001"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top style="thin">
-        <x:color theme="4"/>
-      </x:top>
-      <x:bottom style="double">
-        <x:color theme="4"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="57">
+  <x:cellStyleXfs count="9">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <x:xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <x:alignment vertical="center"/>
-    </x:xf>
     <x:xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1056,10 +512,10 @@
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="180" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="14" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -1076,70 +532,25 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <x:xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <x:xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <x:xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="center"/>
     </x:xf>
-    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <x:xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </x:cellXfs>
-  <x:cellStyles count="49">
+  <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <x:cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <x:cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <x:cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <x:cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <x:cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <x:cellStyle name="Link" xfId="6" builtinId="8"/>
-    <x:cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <x:cellStyle name="Note" xfId="8" builtinId="10"/>
-    <x:cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <x:cellStyle name="Title" xfId="10" builtinId="15"/>
-    <x:cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <x:cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <x:cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <x:cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <x:cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <x:cellStyle name="Input" xfId="16" builtinId="20"/>
-    <x:cellStyle name="Output" xfId="17" builtinId="21"/>
-    <x:cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <x:cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <x:cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <x:cellStyle name="Total" xfId="21" builtinId="25"/>
-    <x:cellStyle name="Good" xfId="22" builtinId="26"/>
-    <x:cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <x:cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <x:cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <x:cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <x:cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <x:cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <x:cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <x:cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <x:cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <x:cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <x:cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <x:cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <x:cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <x:cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <x:cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <x:cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <x:cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <x:cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <x:cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <x:cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <x:cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <x:cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <x:cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <x:cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <x:cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <x:cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </x:cellStyles>
   <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <x:extLst>
     <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </x:ext>
   </x:extLst>
 </x:styleSheet>
@@ -1397,15 +808,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T12"/>
+  <x:dimension ref="A1:T13"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="A13" sqref="A13 13:13"/>
@@ -1413,23 +825,23 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.996339" defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="22.142857" style="5" customWidth="1"/>
-    <x:col min="2" max="2" width="30.571429" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="19.714286" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="12.428571" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="22.714286" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="14.857143" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="6.714286" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="22.140625" style="5" customWidth="1"/>
+    <x:col min="2" max="2" width="30.570312" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="19.710938" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="12.425781" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="22.710938" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="14.855469" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="6.710938" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="25" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="7.142857" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="8.428571" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="7.140625" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="8.425781" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="21" style="0" customWidth="1"/>
     <x:col min="12" max="12" width="19" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="20.857143" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="23.857143" style="0" customWidth="1"/>
-    <x:col min="15" max="15" width="16.714286" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="20.855469" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="23.855469" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="16.710938" style="0" customWidth="1"/>
     <x:col min="16" max="16" width="15" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="12.142857" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="12.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:20" ht="23.25" customHeight="1">
@@ -1546,6 +958,15 @@
       <x:c r="Q2" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
+      <x:c r="R2" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="S2" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="T2" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
     </x:row>
     <x:row r="3" spans="1:20">
       <x:c r="A3" s="5" t="s">
@@ -1599,6 +1020,15 @@
       <x:c r="Q3" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
+      <x:c r="R3" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="S3" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="T3" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
     </x:row>
     <x:row r="4" spans="1:20">
       <x:c r="A4" s="5" t="s">
@@ -1652,6 +1082,15 @@
       <x:c r="Q4" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
+      <x:c r="R4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="S4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="T4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
     </x:row>
     <x:row r="5" spans="1:20">
       <x:c r="A5" s="5" t="s">
@@ -1705,6 +1144,15 @@
       <x:c r="Q5" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
+      <x:c r="R5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="S5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="T5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
     </x:row>
     <x:row r="6" spans="1:20">
       <x:c r="A6" s="5" t="s">
@@ -1758,6 +1206,15 @@
       <x:c r="Q6" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
+      <x:c r="R6" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="S6" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="T6" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
     </x:row>
     <x:row r="7" spans="1:20">
       <x:c r="A7" s="5" t="s">
@@ -1811,6 +1268,15 @@
       <x:c r="Q7" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
+      <x:c r="R7" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="S7" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="T7" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
     </x:row>
     <x:row r="8" spans="1:20">
       <x:c r="A8" s="5" t="s">
@@ -1864,6 +1330,15 @@
       <x:c r="Q8" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
+      <x:c r="R8" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="S8" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="T8" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
     </x:row>
     <x:row r="9" spans="1:20">
       <x:c r="A9" s="5" t="s">
@@ -1917,6 +1392,15 @@
       <x:c r="Q9" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
+      <x:c r="R9" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="S9" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="T9" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
     </x:row>
     <x:row r="10" spans="1:20">
       <x:c r="A10" s="5" t="s">
@@ -1970,6 +1454,15 @@
       <x:c r="Q10" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
+      <x:c r="R10" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="S10" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="T10" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
     </x:row>
     <x:row r="11" spans="1:20">
       <x:c r="A11" s="5" t="s">
@@ -2023,6 +1516,15 @@
       <x:c r="Q11" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
+      <x:c r="R11" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="S11" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="T11" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
     </x:row>
     <x:row r="12" spans="1:20">
       <x:c r="A12" s="5" t="s">
@@ -2074,6 +1576,77 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="Q12" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="R12" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="S12" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="T12" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:20">
+      <x:c r="A13" s="5" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J13" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="K13" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L13" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="M13" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="N13" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="O13" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="P13" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="Q13" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="R13" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="S13" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="T13" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
     </x:row>
@@ -2087,31 +1660,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0100-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:N1"/>
+  <x:dimension ref="A1:N2"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="E1" workbookViewId="0">
-      <x:selection activeCell="E2" sqref="E2 2:2"/>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="A2" sqref="A2"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.996339" defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="25.142857" style="5" customWidth="1"/>
-    <x:col min="2" max="3" width="21.428571" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="21.571429" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="25.140625" style="5" customWidth="1"/>
+    <x:col min="2" max="3" width="21.425781" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="21.570312" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="21" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="17.285714" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="14.714286" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="16.714286" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="14.285714" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="13.428571" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="19.428571" style="5" customWidth="1"/>
-    <x:col min="12" max="12" width="12.714286" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="17.285156" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="14.710938" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="16.710938" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="14.285156" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="13.425781" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="19.425781" style="5" customWidth="1"/>
+    <x:col min="12" max="12" width="12.710938" style="0" customWidth="1"/>
     <x:col min="13" max="13" width="9" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="12.857143" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="12.855469" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:14">
@@ -2119,43 +1692,81 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F1" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G1" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H1" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="I1" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="J1" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="K1" s="5" t="s">
-        <x:v>64</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="L1" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="M1" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="N1" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>69</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:14">
+      <x:c r="A2" s="5" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="K2" s="5" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="L2" s="0" t="s">
+        <x:v>78</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2168,30 +1779,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0200-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
   <x:dimension ref="A1:M4"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="C10" sqref="C10"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="D7" sqref="D7"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.139196" defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="19.285714" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="20.142857" style="5" customWidth="1"/>
-    <x:col min="3" max="4" width="24.142857" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="20.285714" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="17.857143" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="18.428571" style="0" customWidth="1"/>
-    <x:col min="8" max="12" width="17.285714" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="19.285156" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="20.140625" style="5" customWidth="1"/>
+    <x:col min="3" max="4" width="24.140625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="20.285156" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="17.855469" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="18.425781" style="0" customWidth="1"/>
+    <x:col min="8" max="12" width="17.285156" style="0" customWidth="1"/>
     <x:col min="13" max="13" width="19" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="14.428571" style="0" customWidth="1"/>
-    <x:col min="15" max="15" width="17.571429" style="0" customWidth="1"/>
-    <x:col min="16" max="16" width="16.857143" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="19.142857" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="14.425781" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="17.570312" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="16.855469" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="19.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:17">
@@ -2199,40 +1810,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="5" t="s">
-        <x:v>67</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="J1" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="K1" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="L1" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="M1" s="0" t="s">
         <x:v>69</x:v>
-      </x:c>
-      <x:c r="F1" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="G1" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="H1" s="0" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="I1" s="0" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="J1" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="K1" s="0" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="L1" s="0" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="M1" s="0" t="s">
-        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:17">
@@ -2243,10 +1854,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E2" s="0">
         <x:v>11</x:v>
@@ -2284,10 +1895,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E3" s="0">
         <x:v>11</x:v>
@@ -2318,26 +1929,29 @@
       </x:c>
     </x:row>
     <x:row r="4" spans="1:17">
+      <x:c r="A4" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
       <x:c r="B4" s="7" t="s">
-        <x:v>80</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E4" s="0">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F4" s="6">
-        <x:v>46024</x:v>
+        <x:v>46023</x:v>
       </x:c>
       <x:c r="G4" s="0">
-        <x:v>40000</x:v>
+        <x:v>20000</x:v>
       </x:c>
       <x:c r="H4" s="0">
-        <x:v>20000</x:v>
+        <x:v>5000</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s">
         <x:v>22</x:v>
@@ -2365,36 +1979,36 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0300-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T2"/>
+  <x:dimension ref="A1:T3"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
+    <x:sheetView workbookViewId="0">
       <x:selection activeCell="A10" sqref="A10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.139196" defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="16.571429" style="0" customWidth="1"/>
-    <x:col min="2" max="3" width="15.714286" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="17.285714" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="13.714286" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.571429" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="27.285714" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="11.857143" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="11.714286" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="9.142857" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="15.857143" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="24.857143" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="16.570312" style="0" customWidth="1"/>
+    <x:col min="2" max="3" width="15.710938" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="17.285156" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="13.710938" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="10.570312" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="27.285156" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="11.855469" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="11.710938" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="15.855469" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="24.855469" style="0" customWidth="1"/>
     <x:col min="13" max="13" width="20" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="28.142857" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="28.140625" style="0" customWidth="1"/>
     <x:col min="15" max="15" width="18" style="0" customWidth="1"/>
-    <x:col min="16" max="17" width="9.142857" style="0" customWidth="1"/>
-    <x:col min="18" max="18" width="14.571429" style="0" customWidth="1"/>
-    <x:col min="19" max="19" width="9.142857" style="0" customWidth="1"/>
-    <x:col min="20" max="20" width="12.571429" style="0" customWidth="1"/>
+    <x:col min="16" max="17" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="18" max="18" width="14.570312" style="0" customWidth="1"/>
+    <x:col min="19" max="19" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="20" max="20" width="12.570312" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:20">
@@ -2402,61 +2016,61 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F1" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G1" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="H1" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="I1" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="J1" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K1" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="L1" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="M1" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="N1" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="O1" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="P1" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="Q1" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="R1" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="S1" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="T1" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:20">
@@ -2464,61 +2078,61 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="J2" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="K2" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="L2" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="M2" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="N2" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="O2" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="P2" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="Q2" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="R2" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="S2" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="T2" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:20">
@@ -2526,61 +2140,61 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="J3" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="K3" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="L3" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="M3" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="N3" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="O3" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="P3" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="Q3" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="R3" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="S3" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="T3" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2593,7 +2207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0400-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -2605,76 +2219,76 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.139196" defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="16.857143" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="18.142857" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.142857" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="16.855469" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="18.140625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.140625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="16" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="14.714286" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="14.710938" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="18" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F1" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G1" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H1" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="I1" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="J1" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="K1" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:11">
       <x:c r="A2" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C2" s="0">
         <x:v>42</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="J2" s="0">
         <x:v>411024</x:v>
@@ -2682,31 +2296,31 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C3" s="0">
         <x:v>42</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="J3" s="0">
         <x:v>411024</x:v>
@@ -2722,7 +2336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0500-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -2739,52 +2353,105 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C1" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D1" s="2" t="s">
-        <x:v>117</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E1" s="2" t="s">
-        <x:v>118</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F1" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G1" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H1" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="I1" s="2" t="s">
-        <x:v>119</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="J1" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="K1" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="L1" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M1" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N1" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="O1" s="4" t="s">
-        <x:v>121</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="P1" s="4" t="s">
-        <x:v>122</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="Q1" s="4" t="s">
-        <x:v>123</x:v>
+        <x:v>133</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:17">
+      <x:c r="A2" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="K2" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L2" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="M2" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N2" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="O2" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="P2" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="Q2" s="0" t="s">
+        <x:v>22</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/DataEntry/Data/Documents/DataEntry.xlsx
+++ b/DataEntry/Data/Documents/DataEntry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FD1C6E-2709-48A2-82FD-722916997294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7669EBC-DF22-4454-9F7C-2CDC60BD8232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TokenDetails" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="129">
   <si>
     <t>Token</t>
   </si>
@@ -90,7 +90,67 @@
     <t>TenantAdhar</t>
   </si>
   <si>
-    <t>26011999902068</t>
+    <t>26011999902091</t>
+  </si>
+  <si>
+    <t>BMGPK9838C</t>
+  </si>
+  <si>
+    <t>Mrs Anita Anil Kulkarni</t>
+  </si>
+  <si>
+    <t>19/01/2026 02:45:53</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>26011999902539</t>
+  </si>
+  <si>
+    <t>AABPU4295N</t>
+  </si>
+  <si>
+    <t>Urane Rajan Krishnaji</t>
+  </si>
+  <si>
+    <t>19/01/2026 03:55:05</t>
+  </si>
+  <si>
+    <t>9423892862</t>
+  </si>
+  <si>
+    <t>9067446491</t>
+  </si>
+  <si>
+    <t>26011999902696</t>
+  </si>
+  <si>
+    <t>AWPPP6563J</t>
+  </si>
+  <si>
+    <t>Mrs Sontakke Priya Ranjit</t>
+  </si>
+  <si>
+    <t>19/01/2026 04:17:11</t>
+  </si>
+  <si>
+    <t>26012099904417</t>
+  </si>
+  <si>
+    <t>ARGPR4133A</t>
+  </si>
+  <si>
+    <t>Prashant Nageshwar Ranjane</t>
+  </si>
+  <si>
+    <t>20/01/2026 10:31:03</t>
   </si>
   <si>
     <t>ACOPB0062D</t>
@@ -99,58 +159,7 @@
     <t>Barde Ichharam Baliram</t>
   </si>
   <si>
-    <t>19/01/2026 02:42:37</t>
-  </si>
-  <si>
-    <t>Created</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>26011999902091</t>
-  </si>
-  <si>
-    <t>BMGPK9838C</t>
-  </si>
-  <si>
-    <t>Mrs Anita Anil Kulkarni</t>
-  </si>
-  <si>
-    <t>19/01/2026 02:45:53</t>
-  </si>
-  <si>
-    <t>26011999902539</t>
-  </si>
-  <si>
-    <t>AABPU4295N</t>
-  </si>
-  <si>
-    <t>Urane Rajan Krishnaji</t>
-  </si>
-  <si>
-    <t>19/01/2026 03:55:05</t>
-  </si>
-  <si>
-    <t>9423892862</t>
-  </si>
-  <si>
-    <t>9067446491</t>
-  </si>
-  <si>
-    <t>26011999902696</t>
-  </si>
-  <si>
-    <t>AWPPP6563J</t>
-  </si>
-  <si>
-    <t>Mrs Sontakke Priya Ranjit</t>
-  </si>
-  <si>
-    <t>19/01/2026 04:17:11</t>
+    <t>21/01/2026 12:29:11</t>
   </si>
   <si>
     <t>Owner</t>
@@ -189,6 +198,198 @@
     <t>Date</t>
   </si>
   <si>
+    <t>Mrs Anita Mangesh Karmarkar</t>
+  </si>
+  <si>
+    <t>411036</t>
+  </si>
+  <si>
+    <t>B4-201</t>
+  </si>
+  <si>
+    <t>Mangal Bhairav</t>
+  </si>
+  <si>
+    <t>Sinhagad Road</t>
+  </si>
+  <si>
+    <t>Nanded City</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Nanded</t>
+  </si>
+  <si>
+    <t>Monde Sangram Mohan</t>
+  </si>
+  <si>
+    <t>411041</t>
+  </si>
+  <si>
+    <t>B-501</t>
+  </si>
+  <si>
+    <t>Pancham</t>
+  </si>
+  <si>
+    <t>Sinhgad Road</t>
+  </si>
+  <si>
+    <t>11,12,79</t>
+  </si>
+  <si>
+    <t>Bisen Shriram Raghunath</t>
+  </si>
+  <si>
+    <t>C-403</t>
+  </si>
+  <si>
+    <t>Shubh Kalyan</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>411046</t>
+  </si>
+  <si>
+    <t>Haveli</t>
+  </si>
+  <si>
+    <t>Shop No. 3</t>
+  </si>
+  <si>
+    <t>Samruddhi Apartment</t>
+  </si>
+  <si>
+    <t>TO BE FILLED</t>
+  </si>
+  <si>
+    <t>Ambegaon Khurd</t>
+  </si>
+  <si>
+    <t>46/624</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>TenantType</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>Deposit</t>
+  </si>
+  <si>
+    <t>RentAmount</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>StampDuty</t>
+  </si>
+  <si>
+    <t>DHC</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Renew</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>FullName</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Adhar</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>Laxman</t>
+  </si>
+  <si>
+    <t>Deokate</t>
+  </si>
+  <si>
+    <t>D404</t>
+  </si>
+  <si>
+    <t>Laukik Ishan</t>
+  </si>
+  <si>
+    <t>Swapna</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>FlatDetails</t>
+  </si>
+  <si>
+    <t>GRN</t>
+  </si>
+  <si>
+    <t>DHCAmount</t>
+  </si>
+  <si>
+    <t>Cstatus</t>
+  </si>
+  <si>
+    <t>Dstatus</t>
+  </si>
+  <si>
+    <t>FinalStatus</t>
+  </si>
+  <si>
+    <t>9011092282</t>
+  </si>
+  <si>
+    <t>C-403, Shubh Kalyan, 2</t>
+  </si>
+  <si>
+    <t>Sinhagad Road, Nanded City</t>
+  </si>
+  <si>
+    <t>B-501, Pancham, 11,12,79</t>
+  </si>
+  <si>
+    <t>Sinhgad Road, Nanded City</t>
+  </si>
+  <si>
     <t>Kadam Vishal Bhalchandra</t>
   </si>
   <si>
@@ -211,184 +412,13 @@
   </si>
   <si>
     <t>Badalapur</t>
-  </si>
-  <si>
-    <t>Mrs Anita Mangesh Karmarkar</t>
-  </si>
-  <si>
-    <t>411036</t>
-  </si>
-  <si>
-    <t>B4-201</t>
-  </si>
-  <si>
-    <t>Mangal Bhairav</t>
-  </si>
-  <si>
-    <t>Sinhagad Road</t>
-  </si>
-  <si>
-    <t>Nanded City</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Nanded</t>
-  </si>
-  <si>
-    <t>Monde Sangram Mohan</t>
-  </si>
-  <si>
-    <t>411041</t>
-  </si>
-  <si>
-    <t>B-501</t>
-  </si>
-  <si>
-    <t>Pancham</t>
-  </si>
-  <si>
-    <t>Sinhgad Road</t>
-  </si>
-  <si>
-    <t>11,12,79</t>
-  </si>
-  <si>
-    <t>Bisen Shriram Raghunath</t>
-  </si>
-  <si>
-    <t>C-403</t>
-  </si>
-  <si>
-    <t>Shubh Kalyan</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>TenantType</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>StartDate</t>
-  </si>
-  <si>
-    <t>Deposit</t>
-  </si>
-  <si>
-    <t>RentAmount</t>
-  </si>
-  <si>
-    <t>Registration</t>
-  </si>
-  <si>
-    <t>StampDuty</t>
-  </si>
-  <si>
-    <t>DHC</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Renew</t>
-  </si>
-  <si>
-    <t>Party</t>
-  </si>
-  <si>
-    <t>DocType</t>
-  </si>
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>MiddleName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>FullName</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Adhar</t>
-  </si>
-  <si>
-    <t>PAN</t>
-  </si>
-  <si>
-    <t>Laxman</t>
-  </si>
-  <si>
-    <t>Deokate</t>
-  </si>
-  <si>
-    <t>D404</t>
-  </si>
-  <si>
-    <t>Laukik Ishan</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>Swapna</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>FlatDetails</t>
-  </si>
-  <si>
-    <t>GRN</t>
-  </si>
-  <si>
-    <t>DHCAmount</t>
-  </si>
-  <si>
-    <t>Cstatus</t>
-  </si>
-  <si>
-    <t>Dstatus</t>
-  </si>
-  <si>
-    <t>FinalStatus</t>
-  </si>
-  <si>
-    <t>9011092282</t>
-  </si>
-  <si>
-    <t>C-403, Shubh Kalyan, 2</t>
-  </si>
-  <si>
-    <t>Sinhagad Road, Nanded City</t>
-  </si>
-  <si>
-    <t>B-501, Pancham, 11,12,79</t>
-  </si>
-  <si>
-    <t>Sinhgad Road, Nanded City</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,12 +465,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
@@ -469,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -480,9 +504,8 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -759,15 +782,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2 A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" style="8" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
     <col min="3" max="3" width="30.5703125" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
@@ -794,7 +817,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -856,7 +879,7 @@
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
@@ -921,7 +944,7 @@
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B3" t="s">
@@ -946,10 +969,10 @@
         <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -986,17 +1009,17 @@
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="9" t="s">
-        <v>32</v>
+      <c r="A4" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
         <v>25</v>
@@ -1011,10 +1034,10 @@
         <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="K4" t="s">
         <v>26</v>
@@ -1051,7 +1074,7 @@
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B5" t="s">
@@ -1085,16 +1108,16 @@
         <v>26</v>
       </c>
       <c r="L5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P5" t="s">
         <v>26</v>
@@ -1112,6 +1135,38 @@
         <v>26</v>
       </c>
       <c r="U5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1123,79 +1178,80 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2 A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" style="8" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="4" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" customWidth="1"/>
     <col min="9" max="9" width="21.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" style="9" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" style="8" customWidth="1"/>
     <col min="13" max="13" width="12.7109375" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
     <col min="15" max="15" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="M1" t="s">
         <v>18</v>
       </c>
       <c r="N1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="O1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
@@ -1205,34 +1261,34 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K2" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>60</v>
+      <c r="L2" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="M2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -1242,7 +1298,7 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B3" t="s">
@@ -1252,34 +1308,34 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" t="s">
         <v>62</v>
       </c>
-      <c r="E3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" t="s">
         <v>64</v>
-      </c>
-      <c r="H3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="M3" t="s">
-        <v>69</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
@@ -1289,20 +1345,20 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="9" t="s">
-        <v>32</v>
+      <c r="A4" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>
@@ -1314,19 +1370,19 @@
         <v>73</v>
       </c>
       <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="J4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>75</v>
-      </c>
       <c r="M4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
@@ -1336,7 +1392,7 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B5" t="s">
@@ -1346,13 +1402,13 @@
         <v>40</v>
       </c>
       <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" t="s">
         <v>76</v>
-      </c>
-      <c r="E5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
       </c>
       <c r="G5" t="s">
         <v>77</v>
@@ -1361,25 +1417,66 @@
         <v>78</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="M5" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="N5" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="M6" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1390,10 +1487,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1421,37 +1518,37 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="J1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1459,13 +1556,13 @@
         <v>26</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E2">
         <v>11</v>
@@ -1492,129 +1589,6 @@
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3">
-        <v>12</v>
-      </c>
-      <c r="F3" s="7">
-        <v>46024</v>
-      </c>
-      <c r="G3">
-        <v>20001</v>
-      </c>
-      <c r="H3">
-        <v>5001</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7">
-        <v>46025</v>
-      </c>
-      <c r="G4">
-        <v>50000</v>
-      </c>
-      <c r="H4">
-        <v>30000</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5">
-        <v>36</v>
-      </c>
-      <c r="F5" s="7">
-        <v>46023</v>
-      </c>
-      <c r="G5">
-        <v>60000</v>
-      </c>
-      <c r="H5">
-        <v>26000</v>
-      </c>
-      <c r="I5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1629,13 +1603,13 @@
   <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="3" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" customWidth="1"/>
@@ -1659,61 +1633,61 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P1" t="s">
         <v>18</v>
       </c>
       <c r="Q1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="R1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="T1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1742,66 +1716,66 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I1" t="s">
         <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C2">
         <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="I2" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="J2">
         <v>411024</v>
@@ -1809,31 +1783,31 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C3">
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="I3" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="J3">
         <v>411024</v>
@@ -1849,13 +1823,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32" style="9" customWidth="1"/>
+    <col min="1" max="1" width="32" style="8" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1865,78 +1839,78 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="11" t="s">
-        <v>38</v>
+      <c r="A2" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I2" t="s">
         <v>26</v>
@@ -1967,29 +1941,29 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="9" t="s">
-        <v>32</v>
+      <c r="A3" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I3" t="s">
         <v>26</v>
